--- a/server/data/租车订单信息表.xlsx
+++ b/server/data/租车订单信息表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0278F-6FFA-4698-B967-B8A886906DBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825AF733-7A8B-480C-8A47-68C0CED32E57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,118 +77,115 @@
     <t>新客人5</t>
   </si>
   <si>
-    <t>2020/06/04-08:00</t>
+    <t>新客人6</t>
+  </si>
+  <si>
+    <t>新客人7</t>
+  </si>
+  <si>
+    <t>新客人8</t>
+  </si>
+  <si>
+    <t>新客人9</t>
+  </si>
+  <si>
+    <t>新客人10</t>
+  </si>
+  <si>
+    <t>2020-06-04/08:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/06/04-08:01</t>
-  </si>
-  <si>
-    <t>2020/06/04-08:02</t>
-  </si>
-  <si>
-    <t>2020/06/04-08:03</t>
-  </si>
-  <si>
-    <t>2020/06/04-08:04</t>
-  </si>
-  <si>
-    <t>2020/06/04-18:00</t>
+    <t>2020-06-04/18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/06/04-17:00</t>
+    <t>2020-06-04/17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/06/04-17:01</t>
-  </si>
-  <si>
-    <t>2020/06/04-17:02</t>
-  </si>
-  <si>
-    <t>2020/06/04-17:03</t>
-  </si>
-  <si>
-    <t>2020/06/04-17:04</t>
-  </si>
-  <si>
-    <t>2020/06/04-18:01</t>
-  </si>
-  <si>
-    <t>2020/06/04-18:02</t>
-  </si>
-  <si>
-    <t>2020/06/04-18:03</t>
-  </si>
-  <si>
-    <t>2020/06/04-18:04</t>
-  </si>
-  <si>
-    <t>新客人6</t>
-  </si>
-  <si>
-    <t>新客人7</t>
-  </si>
-  <si>
-    <t>新客人8</t>
-  </si>
-  <si>
-    <t>新客人9</t>
-  </si>
-  <si>
-    <t>新客人10</t>
-  </si>
-  <si>
-    <t>2020/05/04-09:00</t>
+    <t>2020-06-04/08:01</t>
+  </si>
+  <si>
+    <t>2020-06-04/08:02</t>
+  </si>
+  <si>
+    <t>2020-06-04/08:03</t>
+  </si>
+  <si>
+    <t>2020-06-04/08:04</t>
+  </si>
+  <si>
+    <t>2020-06-04/18:01</t>
+  </si>
+  <si>
+    <t>2020-06-04/18:02</t>
+  </si>
+  <si>
+    <t>2020-06-04/18:03</t>
+  </si>
+  <si>
+    <t>2020-06-04/18:04</t>
+  </si>
+  <si>
+    <t>2020-06-04/17:01</t>
+  </si>
+  <si>
+    <t>2020-06-04/17:02</t>
+  </si>
+  <si>
+    <t>2020-06-04/17:03</t>
+  </si>
+  <si>
+    <t>2020-06-04/17:04</t>
+  </si>
+  <si>
+    <t>2020-05-04/09:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/05/04-19:00</t>
+    <t>2020-05-04/19:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/05/04-18:00</t>
+    <t>2020-05-04/18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/05/04-09:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/05/04-09:02</t>
-  </si>
-  <si>
-    <t>2020/05/04-09:03</t>
-  </si>
-  <si>
-    <t>2020/05/04-09:04</t>
-  </si>
-  <si>
-    <t>2020/05/04-19:02</t>
-  </si>
-  <si>
-    <t>2020/05/04-18:02</t>
-  </si>
-  <si>
-    <t>2020/05/04-18:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/05/04-18:03</t>
-  </si>
-  <si>
-    <t>2020/05/04-18:04</t>
-  </si>
-  <si>
-    <t>2020/05/04-19:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/05/04-19:03</t>
-  </si>
-  <si>
-    <t>2020/05/04-19:04</t>
+    <t>2020-05-04/18:01</t>
+  </si>
+  <si>
+    <t>2020-05-04/18:02</t>
+  </si>
+  <si>
+    <t>2020-05-04/18:03</t>
+  </si>
+  <si>
+    <t>2020-05-04/18:04</t>
+  </si>
+  <si>
+    <t>2020-05-04/09:01</t>
+  </si>
+  <si>
+    <t>2020-05-04/19:01</t>
+  </si>
+  <si>
+    <t>2020-05-04/09:02</t>
+  </si>
+  <si>
+    <t>2020-05-04/19:02</t>
+  </si>
+  <si>
+    <t>2020-05-04/09:03</t>
+  </si>
+  <si>
+    <t>2020-05-04/19:03</t>
+  </si>
+  <si>
+    <t>2020-05-04/09:04</t>
+  </si>
+  <si>
+    <t>2020-05-04/19:04</t>
   </si>
 </sst>
 </file>
@@ -522,7 +519,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -584,16 +581,16 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>500</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -619,16 +616,16 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>550</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>110</v>
@@ -654,16 +651,16 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <v>120</v>
@@ -689,16 +686,16 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>650</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>130</v>
@@ -724,16 +721,16 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J6">
         <v>140</v>
@@ -750,7 +747,7 @@
         <v>422338</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>1391239</v>
@@ -785,7 +782,7 @@
         <v>422339</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>1391240</v>
@@ -794,16 +791,16 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>5500</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>1100</v>
@@ -820,7 +817,7 @@
         <v>422340</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>1391241</v>
@@ -829,16 +826,16 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>6000</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>1200</v>
@@ -855,7 +852,7 @@
         <v>422341</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1391242</v>
@@ -864,16 +861,16 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10">
         <v>6500</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>1300</v>
@@ -890,7 +887,7 @@
         <v>422342</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>1391243</v>
@@ -899,7 +896,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -908,7 +905,7 @@
         <v>7000</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>1400</v>
@@ -920,5 +917,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>